--- a/Python 填空题批量导入模板.xlsx
+++ b/Python 填空题批量导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenz\Documents\GitHub\sun-dc-elearning-uploader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879ECFF-33B6-4F6B-815F-BFD459AF4A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802AAB1-06D5-4C8B-AE8A-DF0E2DDAA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6864" yWindow="4608" windowWidth="23040" windowHeight="13500" xr2:uid="{732D24A0-6889-4181-8CBA-9CFE98321B91}"/>
+    <workbookView xWindow="4524" yWindow="3720" windowWidth="23040" windowHeight="13500" xr2:uid="{732D24A0-6889-4181-8CBA-9CFE98321B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,8 @@
   </si>
   <si>
     <t>附件本地路径（纯文本或 JSON 数组）
-若使用 JSON 数组，注意使用双引号而不是单引号，以及反斜杠转义。</t>
+若为纯文本，请不要以引号包裹路径。
+若为 JSON 数组，注意使用双引号而非单引号，以及转义反斜杠。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,16 +434,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/Python 填空题批量导入模板.xlsx
+++ b/Python 填空题批量导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenz\Documents\GitHub\sun-dc-elearning-uploader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802AAB1-06D5-4C8B-AE8A-DF0E2DDAA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBEB6A-04B2-49DA-BFB9-0ADF2ADA6C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4524" yWindow="3720" windowWidth="23040" windowHeight="13500" xr2:uid="{732D24A0-6889-4181-8CBA-9CFE98321B91}"/>
   </bookViews>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,6 +59,10 @@
     <t>附件本地路径（纯文本或 JSON 数组）
 若为纯文本，请不要以引号包裹路径。
 若为 JSON 数组，注意使用双引号而非单引号，以及转义反斜杠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析（可选）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,12 +434,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,22 +449,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
